--- a/All Teraco Data/Operations JB1 East/Outputs/Data Analysis Results.xlsx
+++ b/All Teraco Data/Operations JB1 East/Outputs/Data Analysis Results.xlsx
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>23532380</v>
+        <v>5569146</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>98027.96782725834</v>
+        <v>46545.40500000001</v>
       </c>
     </row>
   </sheetData>
@@ -566,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>26.89305197630201</v>
+        <v>26.03606550267152</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -574,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>57.76857019813512</v>
+        <v>56.91589778516328</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -582,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>15.33837782556287</v>
+        <v>17.0480367121652</v>
       </c>
     </row>
   </sheetData>
@@ -1723,10 +1723,10 @@
         <v>312.6858887931784</v>
       </c>
       <c r="F24">
-        <v>-3.388269745559342</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>-3.388269745559342</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0.989163982555668</v>
@@ -1764,10 +1764,10 @@
         <v>312.7927209307773</v>
       </c>
       <c r="F25">
-        <v>18.57632668827029</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>15.18805694271094</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>1.059388615671722</v>
@@ -1805,10 +1805,10 @@
         <v>312.9983977564351</v>
       </c>
       <c r="F26">
-        <v>9.049221291183983</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>24.23727823389493</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>1.028911398128708</v>
@@ -1846,10 +1846,10 @@
         <v>313.0637949995447</v>
       </c>
       <c r="F27">
-        <v>-2.206652142401822</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>22.0306260914931</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0.992951429779975</v>
@@ -1887,10 +1887,10 @@
         <v>313.84057446732</v>
       </c>
       <c r="F28">
-        <v>-2.84652684827239</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>19.18409924322071</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0.9909300228209695</v>
@@ -1928,10 +1928,10 @@
         <v>313.181110664665</v>
       </c>
       <c r="F29">
-        <v>-6.276348759903044</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>12.90775048331767</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0.9799593636200384</v>
@@ -1969,10 +1969,10 @@
         <v>312.6744068344645</v>
       </c>
       <c r="F30">
-        <v>-6.007740167797806</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>6.900010315519864</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0.9807859548575768</v>
@@ -2010,10 +2010,10 @@
         <v>312.6744068344645</v>
       </c>
       <c r="F31">
-        <v>-5.936311596369251</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.9636987191506137</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0.9810143987911616</v>
@@ -2051,10 +2051,10 @@
         <v>312.9384918848842</v>
       </c>
       <c r="F32">
-        <v>-4.700396646788988</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>-3.736697927638374</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0.9849798066754982</v>
@@ -2092,10 +2092,10 @@
         <v>314.4885563112611</v>
       </c>
       <c r="F33">
-        <v>-3.036175358880143</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>-6.772873286518518</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0.9903456730047909</v>
@@ -2133,10 +2133,10 @@
         <v>313.8680313251141</v>
       </c>
       <c r="F34">
-        <v>-4.570412277495109</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>-11.34328556401363</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0.9854384269140143</v>
@@ -2174,10 +2174,10 @@
         <v>314.9098942745017</v>
       </c>
       <c r="F35">
-        <v>0.447248582641123</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>-10.8960369813725</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>1.001420243030698</v>
@@ -2215,10 +2215,10 @@
         <v>317.6351122144667</v>
       </c>
       <c r="F36">
-        <v>0.1446496902951822</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>-10.75138729107732</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>1.00045539578193</v>
@@ -2256,10 +2256,10 @@
         <v>319.1048029298463</v>
       </c>
       <c r="F37">
-        <v>1.192816117772736</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>-9.558571173304585</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>1.003738007409544</v>
@@ -2297,10 +2297,10 @@
         <v>318.6205638014773</v>
       </c>
       <c r="F38">
-        <v>-2.251516182429725</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>-11.81008735573431</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0.992933550315878</v>
@@ -2338,10 +2338,10 @@
         <v>323.2567790439127</v>
       </c>
       <c r="F39">
-        <v>-3.500826662960321</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>-15.31091401869463</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0.9891701369007183</v>
@@ -2379,10 +2379,10 @@
         <v>323.1209924017309</v>
       </c>
       <c r="F40">
-        <v>-3.204325735064231</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>-18.51523975375886</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0.9900832016166862</v>
@@ -2420,10 +2420,10 @@
         <v>324.2107800483592</v>
       </c>
       <c r="F41">
-        <v>-9.401256238835401</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>-27.91649599259426</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0.9710026414376687</v>
@@ -2461,10 +2461,10 @@
         <v>320.8580481038996</v>
       </c>
       <c r="F42">
-        <v>-6.149714770566277</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>-34.06621076316054</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0.9808335343093065</v>
@@ -2502,10 +2502,10 @@
         <v>329.7051469007598</v>
       </c>
       <c r="F43">
-        <v>-0.2110992817121655</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>-34.27731004487271</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0.9993597331321743</v>
@@ -2543,10 +2543,10 @@
         <v>319.6369667554558</v>
       </c>
       <c r="F44">
-        <v>8.297557054067966</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>-25.97975299080474</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>1.025959316090045</v>
@@ -2584,10 +2584,10 @@
         <v>318.1842493703491</v>
       </c>
       <c r="F45">
-        <v>6.952655391555709</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>-19.02709759924903</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>1.021851035698072</v>
@@ -2625,10 +2625,10 @@
         <v>331.5876889142436</v>
       </c>
       <c r="F46">
-        <v>0.3175520242895118</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>-18.70954557495952</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>1.000957671333726</v>
@@ -2666,10 +2666,10 @@
         <v>327.6393927634498</v>
       </c>
       <c r="F47">
-        <v>-0.2886813210304808</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>-18.99822689599</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0.9991189053349305</v>
@@ -2707,10 +2707,10 @@
         <v>328.9173846898668</v>
       </c>
       <c r="F48">
-        <v>3.921901024418958</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>-15.07632587157104</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>1.011923665962858</v>
@@ -2748,10 +2748,10 @@
         <v>317.3285938383651</v>
       </c>
       <c r="F49">
-        <v>-3.965498600269882</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>-19.04182447184093</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0.987503494241399</v>
@@ -2789,10 +2789,10 @@
         <v>328.0043193643134</v>
       </c>
       <c r="F50">
-        <v>-2.736462221456236</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>-21.77828669329716</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0.9916572372377302</v>
@@ -2830,10 +2830,10 @@
         <v>322.9607441953326</v>
       </c>
       <c r="F51">
-        <v>3.818647048344303</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>-17.95963964495286</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>1.011823873696658</v>
@@ -2871,10 +2871,10 @@
         <v>318.6255559574399</v>
       </c>
       <c r="F52">
-        <v>12.5320295126325</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>-5.427610132320353</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>1.039331526546811</v>
@@ -2912,10 +2912,10 @@
         <v>320.1771180306055</v>
       </c>
       <c r="F53">
-        <v>4.222149368678913</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>-1.20546076364144</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>1.013186917899221</v>
@@ -2956,7 +2956,7 @@
         <v>3.033856006513986</v>
       </c>
       <c r="G54">
-        <v>1.828395242872546</v>
+        <v>3.033856006513986</v>
       </c>
       <c r="H54">
         <v>1.009286498153115</v>
@@ -2997,7 +2997,7 @@
         <v>15.24837571313509</v>
       </c>
       <c r="G55">
-        <v>17.07677095600764</v>
+        <v>18.28223171964908</v>
       </c>
       <c r="H55">
         <v>1.046792721860953</v>
@@ -3038,7 +3038,7 @@
         <v>11.64455462423604</v>
       </c>
       <c r="G56">
-        <v>28.72132558024367</v>
+        <v>29.92678634388511</v>
       </c>
       <c r="H56">
         <v>1.036058087142038</v>
@@ -3079,7 +3079,7 @@
         <v>6.046359805193333</v>
       </c>
       <c r="G57">
-        <v>34.76768538543701</v>
+        <v>35.97314614907845</v>
       </c>
       <c r="H57">
         <v>1.01885936869946</v>
@@ -3120,7 +3120,7 @@
         <v>10.93923668238455</v>
       </c>
       <c r="G58">
-        <v>45.70692206782155</v>
+        <v>46.91238283146299</v>
       </c>
       <c r="H58">
         <v>1.033688060189685</v>
@@ -3161,7 +3161,7 @@
         <v>8.998294230807346</v>
       </c>
       <c r="G59">
-        <v>54.7052162986289</v>
+        <v>55.91067706227034</v>
       </c>
       <c r="H59">
         <v>1.027625187570759</v>
@@ -3202,7 +3202,7 @@
         <v>19.9527788775128</v>
       </c>
       <c r="G60">
-        <v>74.6579951761417</v>
+        <v>75.86345593978314</v>
       </c>
       <c r="H60">
         <v>1.061084461968899</v>
@@ -3243,7 +3243,7 @@
         <v>1.568808206547203</v>
       </c>
       <c r="G61">
-        <v>76.2268033826889</v>
+        <v>77.43226414633034</v>
       </c>
       <c r="H61">
         <v>1.004795881493053</v>
@@ -3284,7 +3284,7 @@
         <v>1.364443066587114</v>
       </c>
       <c r="G62">
-        <v>77.59124644927601</v>
+        <v>78.79670721291745</v>
       </c>
       <c r="H62">
         <v>1.004166179796011</v>
@@ -3325,7 +3325,7 @@
         <v>9.146151861650992</v>
       </c>
       <c r="G63">
-        <v>86.73739831092701</v>
+        <v>87.94285907456845</v>
       </c>
       <c r="H63">
         <v>1.028467111356071</v>
@@ -3366,7 +3366,7 @@
         <v>7.881148721091051</v>
       </c>
       <c r="G64">
-        <v>94.61854703201806</v>
+        <v>95.8240077956595</v>
       </c>
       <c r="H64">
         <v>1.025205608610184</v>
@@ -4303,10 +4303,10 @@
         <v>246.2095591500261</v>
       </c>
       <c r="F87">
-        <v>3.377905135677906</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>3.377905135677906</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>1.013719634393316</v>
@@ -4344,10 +4344,10 @@
         <v>246.3058810149649</v>
       </c>
       <c r="F88">
-        <v>1.141529699315527</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>4.519434834993433</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>1.004634601880441</v>
@@ -4385,10 +4385,10 @@
         <v>246.5510323564571</v>
       </c>
       <c r="F89">
-        <v>4.09375335783426</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>8.613188192827693</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>1.016604081186387</v>
@@ -4426,10 +4426,10 @@
         <v>246.6731190606489</v>
       </c>
       <c r="F90">
-        <v>2.138511891744827</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>10.75170008457252</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>1.008669416026718</v>
@@ -4467,10 +4467,10 @@
         <v>247.7955209409707</v>
       </c>
       <c r="F91">
-        <v>13.25529453522259</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>24.00699461979511</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>1.053492873821477</v>
@@ -4508,10 +4508,10 @@
         <v>246.8073536314782</v>
       </c>
       <c r="F92">
-        <v>1.922640416132367</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>25.92963503592748</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>1.007790045101343</v>
@@ -4549,10 +4549,10 @@
         <v>246.0599300402843</v>
       </c>
       <c r="F93">
-        <v>-7.676453849793546</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>18.25318118613393</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>0.9688025033229231</v>
@@ -4590,10 +4590,10 @@
         <v>246.0418838462503</v>
       </c>
       <c r="F94">
-        <v>-6.276437417685969</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>11.97674376844796</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0.9744903700151798</v>
@@ -4631,10 +4631,10 @@
         <v>246.4285764075082</v>
       </c>
       <c r="F95">
-        <v>-0.08016569322359146</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>11.89657807522437</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>0.9996746899471146</v>
@@ -4672,10 +4672,10 @@
         <v>248.7402997725066</v>
       </c>
       <c r="F96">
-        <v>2.106622846539977</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>14.00320092176435</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>1.008469165826634</v>
@@ -4713,10 +4713,10 @@
         <v>247.768364150624</v>
       </c>
       <c r="F97">
-        <v>-7.97559034109608</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>6.027610580668266</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>0.9678102958445189</v>
@@ -4754,10 +4754,10 @@
         <v>249.3959888015705</v>
       </c>
       <c r="F98">
-        <v>-0.8069114206190022</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>5.220699160049264</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>0.9967645372946996</v>
@@ -4795,10 +4795,10 @@
         <v>253.5148097589816</v>
       </c>
       <c r="F99">
-        <v>-4.328696663738015</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>0.8920024963112496</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>0.9829252710409568</v>
@@ -4836,10 +4836,10 @@
         <v>255.7095277033285</v>
       </c>
       <c r="F100">
-        <v>-2.245515798567084</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>-1.353513302255834</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0.9912184899063585</v>
@@ -4877,10 +4877,10 @@
         <v>254.925791660082</v>
       </c>
       <c r="F101">
-        <v>-2.374845231508488</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>-3.728358533764322</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>0.9906841704166399</v>
@@ -4918,10 +4918,10 @@
         <v>261.9443215788272</v>
       </c>
       <c r="F102">
-        <v>-4.542363245498848</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>-8.27072177926317</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>0.9826590505260031</v>
@@ -4959,10 +4959,10 @@
         <v>261.7488461187318</v>
       </c>
       <c r="F103">
-        <v>6.661219357452126</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>-1.609502421811044</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>1.025448896742913</v>
@@ -5000,10 +5000,10 @@
         <v>263.4537496587294</v>
       </c>
       <c r="F104">
-        <v>1.736309865100509</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>0.126807443289465</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>1.006590568049799</v>
@@ -5041,10 +5041,10 @@
         <v>258.4243223504576</v>
       </c>
       <c r="F105">
-        <v>-0.2370128266792904</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>-0.1102053833898253</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>0.9990828540265732</v>
@@ -5082,10 +5082,10 @@
         <v>271.8339828439562</v>
       </c>
       <c r="F106">
-        <v>6.340796917981208</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>6.230591534591383</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>1.023325990561015</v>
@@ -5123,10 +5123,10 @@
         <v>256.6018328219076</v>
       </c>
       <c r="F107">
-        <v>5.003583844742195</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>11.23417537933358</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>1.019499408050662</v>
@@ -5164,10 +5164,10 @@
         <v>254.3922324939884</v>
       </c>
       <c r="F108">
-        <v>0.8775234583823135</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>12.11169883771589</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>1.003449489985521</v>
@@ -5205,10 +5205,10 @@
         <v>274.6926312309727</v>
       </c>
       <c r="F109">
-        <v>5.227136626179572</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>17.33883546389546</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>1.019029038393769</v>
@@ -5246,10 +5246,10 @@
         <v>268.7971580619159</v>
       </c>
       <c r="F110">
-        <v>2.876389557128732</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>20.2152250210242</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>1.010700967145144</v>
@@ -5287,10 +5287,10 @@
         <v>270.8149172304979</v>
       </c>
       <c r="F111">
-        <v>-1.081060087648098</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>19.1341649333761</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>0.9960081220831422</v>
@@ -5328,10 +5328,10 @@
         <v>253.3625146425568</v>
       </c>
       <c r="F112">
-        <v>12.99313416697714</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>32.12729910035324</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>1.051282780269638</v>
@@ -5369,10 +5369,10 @@
         <v>269.4547597139542</v>
       </c>
       <c r="F113">
-        <v>-8.120473999667581</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>24.00682510068566</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>0.9698633120888714</v>
@@ -5410,10 +5410,10 @@
         <v>261.8024581728601</v>
       </c>
       <c r="F114">
-        <v>-6.804059363343754</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>17.20276573734191</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>0.9740107124630157</v>
@@ -5451,10 +5451,10 @@
         <v>255.1934071038543</v>
       </c>
       <c r="F115">
-        <v>-9.312508294306014</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>7.890257443035892</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>0.9635080372961353</v>
@@ -5492,10 +5492,10 @@
         <v>257.5416945240372</v>
       </c>
       <c r="F116">
-        <v>-0.1346350002501708</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>7.755622442785722</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>0.9994772302772218</v>
@@ -5536,7 +5536,7 @@
         <v>-5.027170167369775</v>
       </c>
       <c r="G117">
-        <v>2.728452275415947</v>
+        <v>-5.027170167369775</v>
       </c>
       <c r="H117">
         <v>0.981198734107923</v>
@@ -5577,7 +5577,7 @@
         <v>-4.517381860952298</v>
       </c>
       <c r="G118">
-        <v>-1.788929585536351</v>
+        <v>-9.544552028322073</v>
       </c>
       <c r="H118">
         <v>0.9830305704340685</v>
@@ -5618,7 +5618,7 @@
         <v>-12.62471854624619</v>
       </c>
       <c r="G119">
-        <v>-14.41364813178254</v>
+        <v>-22.16927057456826</v>
       </c>
       <c r="H119">
         <v>0.9517801922238773</v>
@@ -5659,7 +5659,7 @@
         <v>-1.792489651465758</v>
       </c>
       <c r="G120">
-        <v>-16.20613778324829</v>
+        <v>-23.96176022603402</v>
       </c>
       <c r="H120">
         <v>0.9930601636032712</v>
@@ -5700,7 +5700,7 @@
         <v>-5.990234201454371</v>
       </c>
       <c r="G121">
-        <v>-22.19637198470267</v>
+        <v>-29.95199442748839</v>
       </c>
       <c r="H121">
         <v>0.9773559726201164</v>
@@ -5741,7 +5741,7 @@
         <v>-15.62859948695058</v>
       </c>
       <c r="G122">
-        <v>-37.82497147165324</v>
+        <v>-45.58059391443896</v>
       </c>
       <c r="H122">
         <v>0.9412694199525549</v>
@@ -5782,7 +5782,7 @@
         <v>-1.827466928440515</v>
       </c>
       <c r="G123">
-        <v>-39.65243840009376</v>
+        <v>-47.40806084287948</v>
       </c>
       <c r="H123">
         <v>0.9931668886260075</v>
@@ -5823,7 +5823,7 @@
         <v>4.161854717180177</v>
       </c>
       <c r="G124">
-        <v>-35.49058368291358</v>
+        <v>-43.2462061256993</v>
       </c>
       <c r="H124">
         <v>1.01551996081788</v>
@@ -5864,7 +5864,7 @@
         <v>0.5134330407815924</v>
       </c>
       <c r="G125">
-        <v>-34.97715064213199</v>
+        <v>-42.73277308491771</v>
       </c>
       <c r="H125">
         <v>1.001910298312654</v>
@@ -5905,7 +5905,7 @@
         <v>8.491055692579266</v>
       </c>
       <c r="G126">
-        <v>-26.48609494955272</v>
+        <v>-34.24171739233844</v>
       </c>
       <c r="H126">
         <v>1.032727427835681</v>
@@ -5946,7 +5946,7 @@
         <v>8.259713125700728</v>
       </c>
       <c r="G127">
-        <v>-18.22638182385199</v>
+        <v>-25.98200426663772</v>
       </c>
       <c r="H127">
         <v>1.033526845697644</v>
@@ -6883,10 +6883,10 @@
         <v>344.3924280110513</v>
       </c>
       <c r="F150">
-        <v>-57.64903515390483</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>-57.64903515390483</v>
+        <v>0</v>
       </c>
       <c r="H150">
         <v>0.832606554427338</v>
@@ -6924,10 +6924,10 @@
         <v>345.2893153105443</v>
       </c>
       <c r="F151">
-        <v>-4.892499834337002</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>-62.54153498824184</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>0.9858307233459083</v>
@@ -6965,10 +6965,10 @@
         <v>345.8479777821365</v>
       </c>
       <c r="F152">
-        <v>18.30638531309171</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>-44.23514967515013</v>
+        <v>0</v>
       </c>
       <c r="H152">
         <v>1.052931884785007</v>
@@ -7006,10 +7006,10 @@
         <v>346.6502849184076</v>
       </c>
       <c r="F153">
-        <v>17.6369531768363</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>-26.59819649831383</v>
+        <v>0</v>
       </c>
       <c r="H153">
         <v>1.050878230724627</v>
@@ -7047,10 +7047,10 @@
         <v>350.4996677788384</v>
       </c>
       <c r="F154">
-        <v>38.41240364973373</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>11.81420715141991</v>
+        <v>0</v>
       </c>
       <c r="H154">
         <v>1.109593266929918</v>
@@ -7088,10 +7088,10 @@
         <v>347.3872708252816</v>
       </c>
       <c r="F155">
-        <v>1.804026793767605</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>13.61823394518751</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>1.005193128664392</v>
@@ -7129,10 +7129,10 @@
         <v>344.5562235788857</v>
       </c>
       <c r="F156">
-        <v>-56.67405095984878</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>-43.05581701466127</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>0.8355158111173304</v>
@@ -7170,10 +7170,10 @@
         <v>344.0431865948362</v>
       </c>
       <c r="F157">
-        <v>-60.45271040436444</v>
+        <v>0</v>
       </c>
       <c r="G157">
-        <v>-103.5085274190257</v>
+        <v>0</v>
       </c>
       <c r="H157">
         <v>0.824287436113197</v>
@@ -7211,10 +7211,10 @@
         <v>347.094851838816</v>
       </c>
       <c r="F158">
-        <v>6.356052923090715</v>
+        <v>0</v>
       </c>
       <c r="G158">
-        <v>-97.152474495935</v>
+        <v>0</v>
       </c>
       <c r="H158">
         <v>1.018312149804061</v>
@@ -7252,10 +7252,10 @@
         <v>356.1682027950746</v>
       </c>
       <c r="F159">
-        <v>30.13398768111119</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>-67.0184868148238</v>
+        <v>0</v>
       </c>
       <c r="H159">
         <v>1.084606058161933</v>
@@ -7293,10 +7293,10 @@
         <v>353.2632941535834</v>
       </c>
       <c r="F160">
-        <v>-14.92503224881193</v>
+        <v>0</v>
       </c>
       <c r="G160">
-        <v>-81.94351906363573</v>
+        <v>0</v>
       </c>
       <c r="H160">
         <v>0.95775096791595</v>
@@ -7334,10 +7334,10 @@
         <v>357.9801623092975</v>
       </c>
       <c r="F161">
-        <v>35.20331983355521</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>-46.74019923008052</v>
+        <v>0</v>
       </c>
       <c r="H161">
         <v>1.098338744824467</v>
@@ -7375,10 +7375,10 @@
         <v>371.118858336025</v>
       </c>
       <c r="F162">
-        <v>18.01350475921146</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>-28.72669447086906</v>
+        <v>0</v>
       </c>
       <c r="H162">
         <v>1.048538370806534</v>
@@ -7416,10 +7416,10 @@
         <v>378.5758555868102</v>
       </c>
       <c r="F163">
-        <v>39.69434679414968</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>10.96765232328062</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>1.104851765394868</v>
@@ -7457,10 +7457,10 @@
         <v>375.0215368568525</v>
       </c>
       <c r="F164">
-        <v>24.30730242886796</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>35.27495475214857</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>1.064815750670197</v>
@@ -7498,10 +7498,10 @@
         <v>398.5181153786212</v>
       </c>
       <c r="F165">
-        <v>14.4093191451683</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>49.68427389731687</v>
+        <v>0</v>
       </c>
       <c r="H165">
         <v>1.036157250044903</v>
@@ -7539,10 +7539,10 @@
         <v>397.6826498668502</v>
       </c>
       <c r="F166">
-        <v>19.512689418874</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>69.19696331619087</v>
+        <v>0</v>
       </c>
       <c r="H166">
         <v>1.049065981192308</v>
@@ -7580,10 +7580,10 @@
         <v>403.6307127597241</v>
       </c>
       <c r="F167">
-        <v>9.358168192652556</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>78.55513150884343</v>
+        <v>0</v>
       </c>
       <c r="H167">
         <v>1.023184975515536</v>
@@ -7621,10 +7621,10 @@
         <v>386.0378421180791</v>
       </c>
       <c r="F168">
-        <v>16.75561026287772</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>95.31074177172115</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>1.043404061557656</v>
@@ -7662,10 +7662,10 @@
         <v>431.2036025947403</v>
       </c>
       <c r="F169">
-        <v>2.84307002429631</v>
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>98.15381179601746</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>1.006593335508303</v>
@@ -7703,10 +7703,10 @@
         <v>379.2225872834161</v>
       </c>
       <c r="F170">
-        <v>13.51685319279528</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>111.6706649888127</v>
+        <v>0</v>
       </c>
       <c r="H170">
         <v>1.035643586764238</v>
@@ -7744,10 +7744,10 @@
         <v>368.5227141127138</v>
       </c>
       <c r="F171">
-        <v>18.23531564916561</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>129.9059806379784</v>
+        <v>0</v>
       </c>
       <c r="H171">
         <v>1.049482202726826</v>
@@ -7785,10 +7785,10 @@
         <v>434.3250826001863</v>
       </c>
       <c r="F172">
-        <v>0.6005710170440466</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>130.5065516550224</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <v>1.001382768440286</v>
@@ -7826,10 +7826,10 @@
         <v>414.6588261211128</v>
       </c>
       <c r="F173">
-        <v>6.555585737866465</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>137.0621373928889</v>
+        <v>0</v>
       </c>
       <c r="H173">
         <v>1.01580958929342</v>
@@ -7867,10 +7867,10 @@
         <v>421.5623988111474</v>
       </c>
       <c r="F174">
-        <v>-2.297345239723768</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>134.7647921531651</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <v>0.9945504028675173</v>
@@ -7908,10 +7908,10 @@
         <v>361.6859378989483</v>
       </c>
       <c r="F175">
-        <v>20.26675852961938</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>155.0315506827845</v>
+        <v>0</v>
       </c>
       <c r="H175">
         <v>1.056034134606808</v>
@@ -7949,10 +7949,10 @@
         <v>418.168340719293</v>
       </c>
       <c r="F176">
-        <v>-12.35085262405778</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>142.6806980587267</v>
+        <v>0</v>
       </c>
       <c r="H176">
         <v>0.9704644005263214</v>
@@ -7990,10 +7990,10 @@
         <v>392.699540852977</v>
       </c>
       <c r="F177">
-        <v>26.77219128989219</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>169.4528893486189</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>1.068174745587277</v>
@@ -8031,10 +8031,10 @@
         <v>369.7957364350785</v>
       </c>
       <c r="F178">
-        <v>-18.47716500650978</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>150.9757243421091</v>
+        <v>0</v>
       </c>
       <c r="H178">
         <v>0.9500341318571324</v>
@@ -8072,10 +8072,10 @@
         <v>377.7508890773938</v>
       </c>
       <c r="F179">
-        <v>-64.79565098215306</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>86.18007335995605</v>
+        <v>0</v>
       </c>
       <c r="H179">
         <v>0.828469891519229</v>
@@ -8116,7 +8116,7 @@
         <v>-79.42849849949346</v>
       </c>
       <c r="G180">
-        <v>6.751574860462597</v>
+        <v>-79.42849849949346</v>
       </c>
       <c r="H180">
         <v>0.8070837958618809</v>
@@ -8157,7 +8157,7 @@
         <v>-78.16592648397113</v>
       </c>
       <c r="G181">
-        <v>-71.41435162350854</v>
+        <v>-157.5944249834646</v>
       </c>
       <c r="H181">
         <v>0.8085406363740983</v>
@@ -8198,7 +8198,7 @@
         <v>-60.29430501219235</v>
       </c>
       <c r="G182">
-        <v>-131.7086566357009</v>
+        <v>-217.8887299956569</v>
       </c>
       <c r="H182">
         <v>0.8466158576618332</v>
@@ -8239,7 +8239,7 @@
         <v>-58.320535669386</v>
       </c>
       <c r="G183">
-        <v>-190.0291923050869</v>
+        <v>-276.2092656650429</v>
       </c>
       <c r="H183">
         <v>0.8472182275965768</v>
@@ -8280,7 +8280,7 @@
         <v>-69.22592016733699</v>
       </c>
       <c r="G184">
-        <v>-259.2551124724239</v>
+        <v>-345.4351858323799</v>
       </c>
       <c r="H184">
         <v>0.8282135301608858</v>
@@ -8321,7 +8321,7 @@
         <v>-71.31400396064714</v>
       </c>
       <c r="G185">
-        <v>-330.569116433071</v>
+        <v>-416.7491897930271</v>
       </c>
       <c r="H185">
         <v>0.8256185542232489</v>
@@ -8362,7 +8362,7 @@
         <v>-69.26864724161015</v>
       </c>
       <c r="G186">
-        <v>-399.8377636746812</v>
+        <v>-486.0178370346372</v>
       </c>
       <c r="H186">
         <v>0.8317408766061313</v>
@@ -8403,7 +8403,7 @@
         <v>-68.21531794142862</v>
       </c>
       <c r="G187">
-        <v>-468.0530816161098</v>
+        <v>-554.2331549760659</v>
       </c>
       <c r="H187">
         <v>0.8351384724409214</v>
@@ -8444,7 +8444,7 @@
         <v>-73.27085998452401</v>
       </c>
       <c r="G188">
-        <v>-541.3239416006338</v>
+        <v>-627.5040149605899</v>
       </c>
       <c r="H188">
         <v>0.8240933958283401</v>
@@ -8485,7 +8485,7 @@
         <v>-44.02319050118928</v>
       </c>
       <c r="G189">
-        <v>-585.347132101823</v>
+        <v>-671.5272054617792</v>
       </c>
       <c r="H189">
         <v>0.8853783384188227</v>
@@ -8526,7 +8526,7 @@
         <v>-41.93029650221024</v>
       </c>
       <c r="G190">
-        <v>-627.2774286040333</v>
+        <v>-713.4575019639894</v>
       </c>
       <c r="H190">
         <v>0.8750543539829423</v>
@@ -9463,10 +9463,10 @@
         <v>906.1559463445908</v>
       </c>
       <c r="F213">
-        <v>-60.52747015412137</v>
+        <v>0</v>
       </c>
       <c r="G213">
-        <v>-60.52747015412137</v>
+        <v>0</v>
       </c>
       <c r="H213">
         <v>0.9332041351179258</v>
@@ -9504,10 +9504,10 @@
         <v>905.4537525447773</v>
       </c>
       <c r="F214">
-        <v>13.75952126475806</v>
+        <v>0</v>
       </c>
       <c r="G214">
-        <v>-46.76794888936331</v>
+        <v>0</v>
       </c>
       <c r="H214">
         <v>1.015196271732363</v>
@@ -9545,10 +9545,10 @@
         <v>904.453377237534</v>
       </c>
       <c r="F215">
-        <v>32.39339061960459</v>
+        <v>0</v>
       </c>
       <c r="G215">
-        <v>-14.37455826975872</v>
+        <v>0</v>
       </c>
       <c r="H215">
         <v>1.035815434421334</v>
@@ -9586,10 +9586,10 @@
         <v>906.7037292916241</v>
       </c>
       <c r="F216">
-        <v>17.25228261315647</v>
+        <v>0</v>
       </c>
       <c r="G216">
-        <v>2.877724343397745</v>
+        <v>0</v>
       </c>
       <c r="H216">
         <v>1.019027475079026</v>
@@ -9627,10 +9627,10 @@
         <v>911.5178113244285</v>
       </c>
       <c r="F217">
-        <v>49.43912319938454</v>
+        <v>0</v>
       </c>
       <c r="G217">
-        <v>52.31684754278228</v>
+        <v>0</v>
       </c>
       <c r="H217">
         <v>1.05423824151889</v>
@@ -9668,10 +9668,10 @@
         <v>906.9829299430952</v>
       </c>
       <c r="F218">
-        <v>-2.156876371673548</v>
+        <v>0</v>
       </c>
       <c r="G218">
-        <v>50.15997117110874</v>
+        <v>0</v>
       </c>
       <c r="H218">
         <v>0.9976219217578782</v>
@@ -9709,10 +9709,10 @@
         <v>902.9017186580065</v>
       </c>
       <c r="F219">
-        <v>-69.96940318181214</v>
+        <v>0</v>
       </c>
       <c r="G219">
-        <v>-19.8094320107034</v>
+        <v>0</v>
       </c>
       <c r="H219">
         <v>0.9225060693363077</v>
@@ -9750,10 +9750,10 @@
         <v>902.088245527144</v>
       </c>
       <c r="F220">
-        <v>-71.99422767001261</v>
+        <v>0</v>
       </c>
       <c r="G220">
-        <v>-91.80365968071601</v>
+        <v>0</v>
       </c>
       <c r="H220">
         <v>0.9201915909812769</v>
@@ -9791,10 +9791,10 @@
         <v>905.5652621548611</v>
       </c>
       <c r="F221">
-        <v>2.472148559425477</v>
+        <v>0</v>
       </c>
       <c r="G221">
-        <v>-89.33151112129053</v>
+        <v>0</v>
       </c>
       <c r="H221">
         <v>1.002729950742084</v>
@@ -9832,10 +9832,10 @@
         <v>917.6012608076597</v>
       </c>
       <c r="F222">
-        <v>31.00023323995367</v>
+        <v>0</v>
       </c>
       <c r="G222">
-        <v>-58.33127788133686</v>
+        <v>0</v>
       </c>
       <c r="H222">
         <v>1.033783991548429</v>
@@ -9873,10 +9873,10 @@
         <v>912.0290955286664</v>
       </c>
       <c r="F223">
-        <v>-24.60044076674797</v>
+        <v>0</v>
       </c>
       <c r="G223">
-        <v>-82.93171864808482</v>
+        <v>0</v>
       </c>
       <c r="H223">
         <v>0.9730266930217966</v>
@@ -9914,10 +9914,10 @@
         <v>921.7426971370505</v>
       </c>
       <c r="F224">
-        <v>35.38700524389651</v>
+        <v>0</v>
       </c>
       <c r="G224">
-        <v>-47.54471340418831</v>
+        <v>0</v>
       </c>
       <c r="H224">
         <v>1.038391413735969</v>
@@ -9955,10 +9955,10 @@
         <v>942.1355335569206</v>
       </c>
       <c r="F225">
-        <v>13.96270453832142</v>
+        <v>0</v>
       </c>
       <c r="G225">
-        <v>-33.5820088658669</v>
+        <v>0</v>
       </c>
       <c r="H225">
         <v>1.014820271649883</v>
@@ -9996,10 +9996,10 @@
         <v>952.4222534496107</v>
       </c>
       <c r="F226">
-        <v>39.60957988372957</v>
+        <v>0</v>
       </c>
       <c r="G226">
-        <v>6.02757101786267</v>
+        <v>0</v>
       </c>
       <c r="H226">
         <v>1.041588255356557</v>
@@ -10037,10 +10037,10 @@
         <v>946.6163322889485</v>
       </c>
       <c r="F227">
-        <v>21.63250104439317</v>
+        <v>0</v>
       </c>
       <c r="G227">
-        <v>27.66007206225584</v>
+        <v>0</v>
       </c>
       <c r="H227">
         <v>1.022852448564969</v>
@@ -10078,10 +10078,10 @@
         <v>981.0552080174983</v>
       </c>
       <c r="F228">
-        <v>9.030137220571874</v>
+        <v>0</v>
       </c>
       <c r="G228">
-        <v>36.69020928282771</v>
+        <v>0</v>
       </c>
       <c r="H228">
         <v>1.009204514839506</v>
@@ -10119,10 +10119,10 @@
         <v>980.0963072699495</v>
       </c>
       <c r="F229">
-        <v>25.42576415862527</v>
+        <v>0</v>
       </c>
       <c r="G229">
-        <v>62.11597344145298</v>
+        <v>0</v>
       </c>
       <c r="H229">
         <v>1.025942107903098</v>
@@ -10160,10 +10160,10 @@
         <v>990.4184896879832</v>
       </c>
       <c r="F230">
-        <v>2.569974597747205</v>
+        <v>0</v>
       </c>
       <c r="G230">
-        <v>64.68594803920018</v>
+        <v>0</v>
       </c>
       <c r="H230">
         <v>1.002594837055755</v>
@@ -10201,10 +10201,10 @@
         <v>965.876852344794</v>
       </c>
       <c r="F231">
-        <v>9.812242893274515</v>
+        <v>0</v>
       </c>
       <c r="G231">
-        <v>74.4981909324747</v>
+        <v>0</v>
       </c>
       <c r="H231">
         <v>1.010158896415681</v>
@@ -10242,10 +10242,10 @@
         <v>1032.088066560868</v>
       </c>
       <c r="F232">
-        <v>9.627433439153947</v>
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>84.12562437162865</v>
+        <v>0</v>
       </c>
       <c r="H232">
         <v>1.009328112349205</v>
@@ -10283,10 +10283,10 @@
         <v>955.7992733179128</v>
       </c>
       <c r="F233">
-        <v>26.48010763447223</v>
+        <v>0</v>
       </c>
       <c r="G233">
-        <v>110.6057320061009</v>
+        <v>0</v>
       </c>
       <c r="H233">
         <v>1.027704674374307</v>
@@ -10324,10 +10324,10 @@
         <v>941.2799936867622</v>
       </c>
       <c r="F234">
-        <v>25.88469678939271</v>
+        <v>0</v>
       </c>
       <c r="G234">
-        <v>136.4904287954936</v>
+        <v>0</v>
       </c>
       <c r="H234">
         <v>1.027499465581977</v>
@@ -10365,10 +10365,10 @@
         <v>1038.960212135607</v>
       </c>
       <c r="F235">
-        <v>7.79045027730831</v>
+        <v>0</v>
       </c>
       <c r="G235">
-        <v>144.2808790728019</v>
+        <v>0</v>
       </c>
       <c r="H235">
         <v>1.007498314359214</v>
@@ -10406,10 +10406,10 @@
         <v>1011.990271845423</v>
       </c>
       <c r="F236">
-        <v>8.248399075020188</v>
+        <v>0</v>
       </c>
       <c r="G236">
-        <v>152.5292781478221</v>
+        <v>0</v>
       </c>
       <c r="H236">
         <v>1.008150670322135</v>
@@ -10447,10 +10447,10 @@
         <v>1023.738319768158</v>
       </c>
       <c r="F237">
-        <v>-1.900123339598736</v>
+        <v>0</v>
       </c>
       <c r="G237">
-        <v>150.6291548082233</v>
+        <v>0</v>
       </c>
       <c r="H237">
         <v>0.9981439364895229</v>
@@ -10488,10 +10488,10 @@
         <v>938.1018941856631</v>
       </c>
       <c r="F238">
-        <v>23.56954629053371</v>
+        <v>0</v>
       </c>
       <c r="G238">
-        <v>174.1987010987571</v>
+        <v>0</v>
       </c>
       <c r="H238">
         <v>1.025124718792934</v>
@@ -10529,10 +10529,10 @@
         <v>1017.598152507751</v>
       </c>
       <c r="F239">
-        <v>-25.17852155537173</v>
+        <v>0</v>
       </c>
       <c r="G239">
-        <v>149.0201795433853</v>
+        <v>0</v>
       </c>
       <c r="H239">
         <v>0.975256911096662</v>
@@ -10570,10 +10570,10 @@
         <v>979.2103517083461</v>
       </c>
       <c r="F240">
-        <v>22.03917048771632</v>
+        <v>0</v>
       </c>
       <c r="G240">
-        <v>171.0593500311016</v>
+        <v>0</v>
       </c>
       <c r="H240">
         <v>1.022507084866154</v>
@@ -10611,10 +10611,10 @@
         <v>944.9014630084714</v>
       </c>
       <c r="F241">
-        <v>-16.54440730028193</v>
+        <v>0</v>
       </c>
       <c r="G241">
-        <v>154.5149427308197</v>
+        <v>0</v>
       </c>
       <c r="H241">
         <v>0.9824908649759032</v>
@@ -10652,10 +10652,10 @@
         <v>955.9243106681791</v>
       </c>
       <c r="F242">
-        <v>-61.16274564986691</v>
+        <v>0</v>
       </c>
       <c r="G242">
-        <v>93.35219708095281</v>
+        <v>0</v>
       </c>
       <c r="H242">
         <v>0.9360171668747341</v>
@@ -10696,7 +10696,7 @@
         <v>-80.41157104462934</v>
       </c>
       <c r="G243">
-        <v>12.94062603632347</v>
+        <v>-80.41157104462934</v>
       </c>
       <c r="H243">
         <v>0.9199721770972673</v>
@@ -10737,7 +10737,7 @@
         <v>-68.91661612562632</v>
       </c>
       <c r="G244">
-        <v>-55.97599008930285</v>
+        <v>-149.3281871702557</v>
       </c>
       <c r="H244">
         <v>0.9312088043545256</v>
@@ -10778,7 +10778,7 @@
         <v>-64.23568190652702</v>
       </c>
       <c r="G245">
-        <v>-120.2116719958299</v>
+        <v>-213.5638690767827</v>
       </c>
       <c r="H245">
         <v>0.9345074833922627</v>
@@ -10819,7 +10819,7 @@
         <v>-57.12896437654774</v>
       </c>
       <c r="G246">
-        <v>-177.3406363723776</v>
+        <v>-270.6928334533304</v>
       </c>
       <c r="H246">
         <v>0.940717853734509</v>
@@ -10860,7 +10860,7 @@
         <v>-66.36511974108214</v>
       </c>
       <c r="G247">
-        <v>-243.7057561134598</v>
+        <v>-337.0579531944126</v>
       </c>
       <c r="H247">
         <v>0.9332561418850435</v>
@@ -10901,7 +10901,7 @@
         <v>-80.10487595702193</v>
       </c>
       <c r="G248">
-        <v>-323.8106320704817</v>
+        <v>-417.1628291514345</v>
       </c>
       <c r="H248">
         <v>0.9201306763451396</v>
@@ -10942,7 +10942,7 @@
         <v>-52.11026737824477</v>
       </c>
       <c r="G249">
-        <v>-375.9208994487265</v>
+        <v>-469.2730965296793</v>
       </c>
       <c r="H249">
         <v>0.9482381245268187</v>
@@ -10983,7 +10983,7 @@
         <v>-63.30804798167901</v>
       </c>
       <c r="G250">
-        <v>-439.2289474304055</v>
+        <v>-532.5811445113583</v>
       </c>
       <c r="H250">
         <v>0.9373109404566421</v>
@@ -11024,7 +11024,7 @@
         <v>-72.58576004451095</v>
       </c>
       <c r="G251">
-        <v>-511.8147074749164</v>
+        <v>-605.1669045558692</v>
       </c>
       <c r="H251">
         <v>0.9284164987453609</v>
@@ -11065,7 +11065,7 @@
         <v>-30.36932823476479</v>
       </c>
       <c r="G252">
-        <v>-542.1840357096812</v>
+        <v>-635.536232790634</v>
       </c>
       <c r="H252">
         <v>0.9686524180651603</v>
@@ -11106,7 +11106,7 @@
         <v>-30.10657189677715</v>
       </c>
       <c r="G253">
-        <v>-572.2906076064584</v>
+        <v>-665.6428046874112</v>
       </c>
       <c r="H253">
         <v>0.9665088461317277</v>
